--- a/biology/Virologie/Beet_necrotic_yellow_vein_virus/Beet_necrotic_yellow_vein_virus.xlsx
+++ b/biology/Virologie/Beet_necrotic_yellow_vein_virus/Beet_necrotic_yellow_vein_virus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beet necrotic yellow vein virus
 Le virus des nervures jaunes nécrotiques de la betterave (BNYVV, sigle de Beet necrotic yellow vein virus) est un phytovirus multipartite à ARN simple brin de polarité positive classé dans le genre Benyvirus. Ce virus phytopathogène est l'un des plus importants virus affectant les cultures de betterave chez laquelle il provoque la maladie de la rhizomanie.
 Il est transmis à la betterave par un protiste vecteur de la famille des Plasmodiophoridae, Polymyxa betae.
 Ce virus est en forme de bâtonnet avec une  symétrie hélicoïdale et un diamètre  d'environ 20 nm.
-Le génome du BNYVV est segmenté, composé selon les isolats, de 4 ou 5 ARN de polarité positive, de longueur respectivement de 390, 265, 105, 89 et 80 nm[2].
+Le génome du BNYVV est segmenté, composé selon les isolats, de 4 ou 5 ARN de polarité positive, de longueur respectivement de 390, 265, 105, 89 et 80 nm.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gamme des plantes hôtes se limite à la betterave (Beta vulgaris), sous ses différentes formes cultivées (betterave sucrière, fourragère, potagère, blette) et à l'épinard (Spinacia oleracea)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gamme des plantes hôtes se limite à la betterave (Beta vulgaris), sous ses différentes formes cultivées (betterave sucrière, fourragère, potagère, blette) et à l'épinard (Spinacia oleracea).
 </t>
         </is>
       </c>
